--- a/rhla_analysis/rhla1_6_zipf_result/k0.xlsx
+++ b/rhla_analysis/rhla1_6_zipf_result/k0.xlsx
@@ -457,35 +457,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.124888152023678</v>
+        <v>0.1248881520236775</v>
       </c>
       <c r="B2" t="n">
-        <v>1.317652342809827</v>
+        <v>1.317652342809828</v>
       </c>
       <c r="C2" t="n">
         <v>0.02172437202987101</v>
       </c>
       <c r="D2" t="n">
-        <v>10.55065930161261</v>
+        <v>10.55065930161265</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.1086283170899492</v>
+        <v>0.1086283170899486</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4735992624449815</v>
+        <v>0.4735992624449812</v>
       </c>
       <c r="C3" t="n">
         <v>0.02206381534283774</v>
       </c>
       <c r="D3" t="n">
-        <v>4.359814044185364</v>
+        <v>4.359814044185388</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.2558796638357543</v>
+        <v>0.2558796638357553</v>
       </c>
       <c r="B4" t="n">
         <v>8.253398584555697</v>
@@ -494,54 +494,54 @@
         <v>0.02206381534283774</v>
       </c>
       <c r="D4" t="n">
-        <v>32.25500010760308</v>
+        <v>32.25500010760296</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.228373798878114</v>
+        <v>0.2283737988781135</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2937666697046247</v>
+        <v>0.2937666697046245</v>
       </c>
       <c r="C5" t="n">
         <v>0.02885268160217244</v>
       </c>
       <c r="D5" t="n">
-        <v>1.286341389195052</v>
+        <v>1.286341389195054</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.03913403755057859</v>
+        <v>0.03913403755057861</v>
       </c>
       <c r="B6" t="n">
-        <v>0.09378065157227636</v>
+        <v>0.09378065157227626</v>
       </c>
       <c r="C6" t="n">
         <v>0.01018329938900204</v>
       </c>
       <c r="D6" t="n">
-        <v>2.396396013344395</v>
+        <v>2.39639601334439</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.03645511254464518</v>
+        <v>0.03645511254464517</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2117886496272597</v>
+        <v>0.2117886496272595</v>
       </c>
       <c r="C7" t="n">
         <v>0.02410047522063815</v>
       </c>
       <c r="D7" t="n">
-        <v>5.809573331254709</v>
+        <v>5.809573331254708</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.1048801312332721</v>
+        <v>0.1048801312332724</v>
       </c>
       <c r="B8" t="n">
         <v>1.006585518773949</v>
@@ -550,40 +550,40 @@
         <v>0.0176510522742702</v>
       </c>
       <c r="D8" t="n">
-        <v>9.597485309539929</v>
+        <v>9.597485309539898</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.1264954052336255</v>
+        <v>0.1264954052336245</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5849805885000545</v>
+        <v>0.5849805885000544</v>
       </c>
       <c r="C9" t="n">
         <v>0.02206381534283774</v>
       </c>
       <c r="D9" t="n">
-        <v>4.624520451313221</v>
+        <v>4.624520451313255</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.06469418837287569</v>
+        <v>0.0646941883728758</v>
       </c>
       <c r="B10" t="n">
-        <v>1.034623377162957</v>
+        <v>1.034623377162956</v>
       </c>
       <c r="C10" t="n">
         <v>0.03122878479293958</v>
       </c>
       <c r="D10" t="n">
-        <v>15.99252426198986</v>
+        <v>15.99252426198983</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.03818939174299053</v>
+        <v>0.03818939174299036</v>
       </c>
       <c r="B11" t="n">
         <v>1.027339917108575</v>
@@ -592,7 +592,7 @@
         <v>0.02206381534283774</v>
       </c>
       <c r="D11" t="n">
-        <v>26.90118564920947</v>
+        <v>26.90118564920958</v>
       </c>
     </row>
   </sheetData>
